--- a/Experimentos/FACS/4. 190719 MTK Red Green N2A.xlsx
+++ b/Experimentos/FACS/4. 190719 MTK Red Green N2A.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821810DD-E7CA-4024-95EA-67DC0D339952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No compensados" sheetId="2" r:id="rId1"/>
     <sheet name="Compensados" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,6 +316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -318,8 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,7 +389,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -720,7 +726,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2121,7 +2126,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2158,7 +2169,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2438,25 +2455,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N24"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2488,11 +2505,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="9">
@@ -2505,15 +2522,15 @@
         <f>D4/E4</f>
         <v>6.9839080459770111</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="15">
         <f>AVERAGE(F4:F6)</f>
         <v>7.8915454400502725</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="15">
         <f>_xlfn.STDEV.P(F4:F6)</f>
         <v>0.99729313926833196</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="15">
         <f>H4/SQRT(3)</f>
         <v>0.57578746241753842</v>
       </c>
@@ -2533,9 +2550,9 @@
         <v>0.2300425463516092</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="10">
@@ -2548,9 +2565,9 @@
         <f>D5/E5</f>
         <v>7.4104651162790693</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="K5" t="s">
         <v>19</v>
       </c>
@@ -2567,8 +2584,8 @@
         <v>0.15557267687781981</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15"/>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2582,12 +2599,12 @@
         <f>D6/E6</f>
         <v>9.280263157894737</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -2603,15 +2620,15 @@
         <f>D7/E7</f>
         <v>9.0350453172205434</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="15">
         <f t="shared" ref="G7" si="0">AVERAGE(F7:F9)</f>
         <v>7.4000572728753715</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="15">
         <f t="shared" ref="H7" si="1">_xlfn.STDEV.P(F7:F9)</f>
         <v>1.1891698324709019</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="15">
         <f t="shared" ref="I7" si="2">H7/SQRT(3)</f>
         <v>0.68656752288925749</v>
       </c>
@@ -2626,8 +2643,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
@@ -2641,12 +2658,12 @@
         <f t="shared" ref="F8:F21" si="3">D8/E8</f>
         <v>6.9235880398671092</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
@@ -2660,12 +2677,12 @@
         <f t="shared" si="3"/>
         <v>6.2415384615384619</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2681,21 +2698,21 @@
         <f t="shared" si="3"/>
         <v>7.0650406504065044</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="15">
         <f t="shared" ref="G10" si="4">AVERAGE(F10:F12)</f>
         <v>6.9155659331736077</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="15">
         <f t="shared" ref="H10" si="5">_xlfn.STDEV.P(F10:F12)</f>
         <v>0.232277096871633</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="15">
         <f t="shared" ref="I10" si="6">H10/SQRT(3)</f>
         <v>0.1341052444054221</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
@@ -2709,12 +2726,12 @@
         <f t="shared" si="3"/>
         <v>6.5875067312870224</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
       <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
@@ -2728,12 +2745,12 @@
         <f t="shared" si="3"/>
         <v>7.094150417827298</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -2749,21 +2766,21 @@
         <f t="shared" si="3"/>
         <v>7.257824143070045</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="15">
         <f t="shared" ref="G13" si="7">AVERAGE(F13:F15)</f>
         <v>6.7707483885221533</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="15">
         <f t="shared" ref="H13" si="8">_xlfn.STDEV.P(F13:F15)</f>
         <v>0.45552207911304932</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="15">
         <f t="shared" ref="I13" si="9">H13/SQRT(3)</f>
         <v>0.26299579499773706</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
@@ -2777,12 +2794,12 @@
         <f t="shared" si="3"/>
         <v>6.8923385077616421</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
       <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
@@ -2796,12 +2813,12 @@
         <f t="shared" si="3"/>
         <v>6.1620825147347738</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2817,21 +2834,21 @@
         <f t="shared" si="3"/>
         <v>7.004287245444802</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="15">
         <f t="shared" ref="G16" si="10">AVERAGE(F16:F18)</f>
         <v>6.2374567093641469</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="15">
         <f>_xlfn.STDEV.P(F16:F18)</f>
         <v>0.59990754874688246</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="15">
         <f t="shared" ref="I16" si="11">H16/SQRT(3)</f>
         <v>0.34635678475790116</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
       <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
@@ -2845,12 +2862,12 @@
         <f t="shared" si="3"/>
         <v>6.1683848797250862</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
       <c r="C18" s="11" t="s">
         <v>10</v>
       </c>
@@ -2864,12 +2881,12 @@
         <f t="shared" si="3"/>
         <v>5.5396980029225524</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2885,21 +2902,21 @@
         <f t="shared" si="3"/>
         <v>6.7113228699551568</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="15">
         <f t="shared" ref="G19" si="12">AVERAGE(F19:F21)</f>
         <v>6.1672961225151681</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="15">
         <f t="shared" ref="H19" si="13">_xlfn.STDEV.P(F19:F21)</f>
         <v>0.43650812635855524</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="15">
         <f t="shared" ref="I19" si="14">H19/SQRT(3)</f>
         <v>0.25201808425657107</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
       <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
@@ -2913,12 +2930,12 @@
         <f t="shared" si="3"/>
         <v>6.1479390175042345</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
       <c r="C21" s="11" t="s">
         <v>10</v>
       </c>
@@ -2932,11 +2949,11 @@
         <f t="shared" si="3"/>
         <v>5.6426264800861139</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -2951,7 +2968,7 @@
         <v>0.86075949367088611</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -2968,7 +2985,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -2987,6 +3004,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
@@ -2995,22 +3028,6 @@
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3020,25 +3037,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3070,11 +3087,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="9">
@@ -3087,15 +3104,15 @@
         <f>D4/E4</f>
         <v>6.9488505747126439</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="15">
         <f>AVERAGE(F4:F6)</f>
         <v>7.8564151038515826</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="15">
         <f>_xlfn.STDEV.P(F4:F6)</f>
         <v>0.99744645597814341</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="15">
         <f>H4/SQRT(3)</f>
         <v>0.5758759798612193</v>
       </c>
@@ -3115,9 +3132,9 @@
         <v>0.22999510473531881</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="10">
@@ -3130,9 +3147,9 @@
         <f>D5/E5</f>
         <v>7.375</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="K5" t="s">
         <v>19</v>
       </c>
@@ -3149,8 +3166,8 @@
         <v>0.15557741638688105</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15"/>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
@@ -3164,12 +3181,12 @@
         <f>D6/E6</f>
         <v>9.2453947368421048</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3185,15 +3202,15 @@
         <f>D7/E7</f>
         <v>9</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="15">
         <f t="shared" ref="G7" si="0">AVERAGE(F7:F9)</f>
         <v>7.3651236618678482</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="15">
         <f t="shared" ref="H7" si="1">_xlfn.STDEV.P(F7:F9)</f>
         <v>1.1890919001537457</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="15">
         <f t="shared" ref="I7" si="2">H7/SQRT(3)</f>
         <v>0.68652252864496865</v>
       </c>
@@ -3208,8 +3225,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
@@ -3223,12 +3240,12 @@
         <f t="shared" ref="F8:F21" si="3">D8/E8</f>
         <v>6.8887043189368775</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
@@ -3242,12 +3259,12 @@
         <f t="shared" si="3"/>
         <v>6.206666666666667</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3263,21 +3280,21 @@
         <f t="shared" si="3"/>
         <v>7.0303523035230349</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="15">
         <f t="shared" ref="G10" si="4">AVERAGE(F10:F12)</f>
         <v>6.8806364223621115</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="15">
         <f t="shared" ref="H10" si="5">_xlfn.STDEV.P(F10:F12)</f>
         <v>0.23232029224841627</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="15">
         <f t="shared" ref="I10" si="6">H10/SQRT(3)</f>
         <v>0.13413018326783566</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
@@ -3291,12 +3308,12 @@
         <f t="shared" si="3"/>
         <v>6.5525040387722129</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
       <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
@@ -3310,12 +3327,12 @@
         <f t="shared" si="3"/>
         <v>7.0590529247910867</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3331,21 +3348,21 @@
         <f t="shared" si="3"/>
         <v>7.2230501738698463</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="15">
         <f t="shared" ref="G13" si="7">AVERAGE(F13:F15)</f>
         <v>6.735848772957735</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="15">
         <f t="shared" ref="H13" si="8">_xlfn.STDEV.P(F13:F15)</f>
         <v>0.45554109978285606</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="15">
         <f t="shared" ref="I13" si="9">H13/SQRT(3)</f>
         <v>0.26300677658657012</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
@@ -3359,12 +3376,12 @@
         <f t="shared" si="3"/>
         <v>6.8572859288933401</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
       <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
@@ -3378,12 +3395,12 @@
         <f t="shared" si="3"/>
         <v>6.1272102161100195</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -3399,21 +3416,21 @@
         <f t="shared" si="3"/>
         <v>6.969453376205788</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="15">
         <f t="shared" ref="G16" si="10">AVERAGE(F16:F18)</f>
         <v>6.2025368171065303</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="15">
         <f>_xlfn.STDEV.P(F16:F18)</f>
         <v>0.60000016131492961</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="15">
         <f t="shared" ref="I16" si="11">H16/SQRT(3)</f>
         <v>0.3464102546489935</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
       <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
@@ -3427,12 +3444,12 @@
         <f t="shared" si="3"/>
         <v>6.1335297005400102</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
       <c r="C18" s="11" t="s">
         <v>10</v>
       </c>
@@ -3446,12 +3463,12 @@
         <f t="shared" si="3"/>
         <v>5.5046273745737944</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -3467,21 +3484,21 @@
         <f t="shared" si="3"/>
         <v>6.676569506726457</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="15">
         <f t="shared" ref="G19" si="12">AVERAGE(F19:F21)</f>
         <v>6.1323808936399002</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="15">
         <f t="shared" ref="H19" si="13">_xlfn.STDEV.P(F19:F21)</f>
         <v>0.43660424932717001</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="15">
         <f t="shared" ref="I19" si="14">H19/SQRT(3)</f>
         <v>0.25207358087837611</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
       <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
@@ -3495,12 +3512,12 @@
         <f t="shared" si="3"/>
         <v>6.1129305477131561</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
       <c r="C21" s="11" t="s">
         <v>10</v>
       </c>
@@ -3514,11 +3531,11 @@
         <f t="shared" si="3"/>
         <v>5.6076426264800858</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -3533,7 +3550,7 @@
         <v>0.86075949367088611</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -3550,7 +3567,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -3569,6 +3586,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="I4:I6"/>
@@ -3585,14 +3610,6 @@
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
